--- a/public/templates/IT_Stakeholder_Engagement_Plan.xlsx
+++ b/public/templates/IT_Stakeholder_Engagement_Plan.xlsx
@@ -597,7 +597,7 @@
       </c>
       <c r="B6" s="5" t="inlineStr">
         <is>
-          <t>Enterprise AI/ML Implementation</t>
+          <t>Enterprise Cloud Infrastructure Migration</t>
         </is>
       </c>
     </row>
@@ -673,6 +673,7 @@
         </is>
       </c>
     </row>
+    <row r="13"/>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
@@ -711,7 +712,7 @@
     <row r="17">
       <c r="A17" s="5" t="inlineStr">
         <is>
-          <t>3. Build stakeholder confidence and trust in AI/ML transformation initiative</t>
+          <t>3. Build stakeholder confidence and trust in IT transformation initiative</t>
         </is>
       </c>
       <c r="B17" s="6" t="n"/>
@@ -764,6 +765,7 @@
       <c r="G20" s="6" t="n"/>
       <c r="H20" s="7" t="n"/>
     </row>
+    <row r="21"/>
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
@@ -917,6 +919,7 @@
         </is>
       </c>
     </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" s="9" t="inlineStr">
         <is>
@@ -2123,6 +2126,7 @@
         </is>
       </c>
     </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" s="9" t="inlineStr">
         <is>
@@ -2975,6 +2979,7 @@
         </is>
       </c>
     </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" s="9" t="inlineStr">
         <is>
